--- a/app/assets/javascripts/scene.xlsx
+++ b/app/assets/javascripts/scene.xlsx
@@ -26,18 +26,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection sqref="A1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -367,7 +360,7 @@
     <col min="1" max="20" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -416,20 +409,8 @@
       <c r="P1">
         <v>1</v>
       </c>
-      <c r="Q1">
-        <v>1</v>
-      </c>
-      <c r="R1">
-        <v>1</v>
-      </c>
-      <c r="S1">
-        <v>1</v>
-      </c>
-      <c r="T1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -478,20 +459,8 @@
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -540,20 +509,8 @@
       <c r="P3">
         <v>1</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -602,20 +559,8 @@
       <c r="P4">
         <v>1</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -664,20 +609,8 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -726,20 +659,8 @@
       <c r="P6">
         <v>1</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -788,20 +709,8 @@
       <c r="P7">
         <v>1</v>
       </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -850,20 +759,8 @@
       <c r="P8">
         <v>1</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -912,20 +809,8 @@
       <c r="P9">
         <v>1</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -974,20 +859,8 @@
       <c r="P10">
         <v>1</v>
       </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1036,20 +909,8 @@
       <c r="P11">
         <v>1</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1098,20 +959,8 @@
       <c r="P12">
         <v>1</v>
       </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1160,20 +1009,8 @@
       <c r="P13">
         <v>1</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1222,20 +1059,8 @@
       <c r="P14">
         <v>1</v>
       </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1284,20 +1109,8 @@
       <c r="P15">
         <v>1</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1346,20 +1159,8 @@
       <c r="P16">
         <v>2</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1408,20 +1209,8 @@
       <c r="P17">
         <v>1</v>
       </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1470,20 +1259,8 @@
       <c r="P18">
         <v>1</v>
       </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1532,20 +1309,8 @@
       <c r="P19">
         <v>1</v>
       </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1594,43 +1359,269 @@
       <c r="P20">
         <v>1</v>
       </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:T20">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:T21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:T22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:T23">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:T24">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:T25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/app/assets/javascripts/scene.xlsx
+++ b/app/assets/javascripts/scene.xlsx
@@ -352,7 +352,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1048576"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
